--- a/stokvel/df_test.xlsx
+++ b/stokvel/df_test.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
